--- a/biology/Médecine/Achille_Foville/Achille_Foville.xlsx
+++ b/biology/Médecine/Achille_Foville/Achille_Foville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achille Foville (25 mars 1831 à Rouen - 15 décembre 1887 à Paris[1]) est un neurologue et psychiatre français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achille Foville (25 mars 1831 à Rouen - 15 décembre 1887 à Paris) est un neurologue et psychiatre français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Foville devient docteur en médecine en 1857. Comme son père Achille-Louis Foville, il est un éminent psychiatre. En outre, Foville est un organisateur de premier plan. Il est médecin en chef de Maréville. Après avoir été médecin-chef de l'asile de Quatre-Mares à Rouen de 1872 à 1880, il est nommé inspecteur général des Établissements de bienfaisance et des asiles d'aliénés et, en 1882, secrétaire général du Conseil de l'Ordre des médecins.
 Ses obsèques sont célébrées dans l'église Saint-Thomas-d'Aquin de Paris et il est inhumé au cimetière du Père-Lachaise.
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Étude clinique du délire des grandeursPrix Civrieux en 1869.
 Les Aliénés, Paris, J.-B. Baillière, 1870
